--- a/Wycena/Raporty/Raport dla klienta.xlsx
+++ b/Wycena/Raporty/Raport dla klienta.xlsx
@@ -133,7 +133,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -158,7 +158,7 @@
       <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -183,7 +183,7 @@
       <row>3</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="3" name="Image 3" descr="Picture"/>
@@ -208,7 +208,7 @@
       <row>4</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="4" name="Image 4" descr="Picture"/>
@@ -233,7 +233,7 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="5" name="Image 5" descr="Picture"/>
@@ -258,7 +258,7 @@
       <row>6</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="6" name="Image 6" descr="Picture"/>
@@ -283,7 +283,7 @@
       <row>7</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="7" name="Image 7" descr="Picture"/>
@@ -308,7 +308,7 @@
       <row>8</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="8" name="Image 8" descr="Picture"/>
@@ -333,7 +333,7 @@
       <row>9</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="9" name="Image 9" descr="Picture"/>
@@ -358,7 +358,7 @@
       <row>10</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="10" name="Image 10" descr="Picture"/>
@@ -383,7 +383,7 @@
       <row>11</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="11" name="Image 11" descr="Picture"/>
@@ -408,7 +408,7 @@
       <row>12</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="12" name="Image 12" descr="Picture"/>
@@ -433,7 +433,7 @@
       <row>13</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="13" name="Image 13" descr="Picture"/>
@@ -458,7 +458,7 @@
       <row>14</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="14" name="Image 14" descr="Picture"/>
@@ -483,7 +483,7 @@
       <row>15</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="15" name="Image 15" descr="Picture"/>
@@ -508,7 +508,7 @@
       <row>16</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="16" name="Image 16" descr="Picture"/>
@@ -533,7 +533,7 @@
       <row>17</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="17" name="Image 17" descr="Picture"/>
@@ -558,7 +558,7 @@
       <row>18</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="18" name="Image 18" descr="Picture"/>
@@ -583,7 +583,7 @@
       <row>19</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="19" name="Image 19" descr="Picture"/>
@@ -608,7 +608,7 @@
       <row>20</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="20" name="Image 20" descr="Picture"/>
@@ -633,7 +633,7 @@
       <row>21</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="21" name="Image 21" descr="Picture"/>
@@ -658,7 +658,7 @@
       <row>22</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="22" name="Image 22" descr="Picture"/>
@@ -683,7 +683,7 @@
       <row>23</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="23" name="Image 23" descr="Picture"/>
@@ -708,7 +708,7 @@
       <row>24</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="24" name="Image 24" descr="Picture"/>
@@ -733,7 +733,7 @@
       <row>25</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="25" name="Image 25" descr="Picture"/>
@@ -758,7 +758,7 @@
       <row>26</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="26" name="Image 26" descr="Picture"/>
@@ -783,7 +783,7 @@
       <row>27</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="27" name="Image 27" descr="Picture"/>
@@ -808,7 +808,7 @@
       <row>28</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="28" name="Image 28" descr="Picture"/>
@@ -833,7 +833,7 @@
       <row>29</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="29" name="Image 29" descr="Picture"/>
@@ -858,7 +858,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="30" name="Image 30" descr="Picture"/>
@@ -883,7 +883,7 @@
       <row>31</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="31" name="Image 31" descr="Picture"/>
@@ -908,7 +908,7 @@
       <row>32</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="32" name="Image 32" descr="Picture"/>
@@ -933,7 +933,7 @@
       <row>33</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525" cy="9525"/>
+    <ext cx="571500" cy="381000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="33" name="Image 33" descr="Picture"/>

--- a/Wycena/Raporty/Raport dla klienta.xlsx
+++ b/Wycena/Raporty/Raport dla klienta.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Koszty dla klienta" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Oferta dla klienta" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,16 +25,71 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00366092"/>
+      <sz val="16"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <sz val="12"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="9"/>
+    </font>
+    <font>
+      <i val="1"/>
+      <sz val="10"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00366092"/>
+        <bgColor rgb="00366092"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2F2F2"/>
+        <bgColor rgb="00F2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9D9D9"/>
+        <bgColor rgb="00D9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -42,12 +97,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <top style="double"/>
+      <bottom style="double"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -128,12 +239,12 @@
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>1</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="571500" cy="381000"/>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -153,12 +264,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>2</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="571500" cy="381000"/>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -178,12 +289,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>3</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="571500" cy="381000"/>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="3" name="Image 3" descr="Picture"/>
@@ -203,12 +314,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>4</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="571500" cy="381000"/>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="4" name="Image 4" descr="Picture"/>
@@ -228,12 +339,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>5</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="571500" cy="381000"/>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="5" name="Image 5" descr="Picture"/>
@@ -253,12 +364,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>6</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="571500" cy="381000"/>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="6" name="Image 6" descr="Picture"/>
@@ -278,12 +389,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>7</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="571500" cy="381000"/>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="7" name="Image 7" descr="Picture"/>
@@ -303,12 +414,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>8</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="571500" cy="381000"/>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="8" name="Image 8" descr="Picture"/>
@@ -328,12 +439,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>9</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="571500" cy="381000"/>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="9" name="Image 9" descr="Picture"/>
@@ -353,12 +464,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>10</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="571500" cy="381000"/>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="10" name="Image 10" descr="Picture"/>
@@ -378,12 +489,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>11</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="571500" cy="381000"/>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="11" name="Image 11" descr="Picture"/>
@@ -403,12 +514,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>12</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="571500" cy="381000"/>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="12" name="Image 12" descr="Picture"/>
@@ -428,12 +539,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>13</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="571500" cy="381000"/>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="13" name="Image 13" descr="Picture"/>
@@ -453,12 +564,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>14</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="571500" cy="381000"/>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>21</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="14" name="Image 14" descr="Picture"/>
@@ -478,12 +589,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>15</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="571500" cy="381000"/>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>22</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="15" name="Image 15" descr="Picture"/>
@@ -503,12 +614,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>16</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="571500" cy="381000"/>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>23</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="16" name="Image 16" descr="Picture"/>
@@ -528,12 +639,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>17</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="571500" cy="381000"/>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>24</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="17" name="Image 17" descr="Picture"/>
@@ -553,12 +664,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>18</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="571500" cy="381000"/>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>25</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="18" name="Image 18" descr="Picture"/>
@@ -578,12 +689,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>19</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="571500" cy="381000"/>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>26</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="19" name="Image 19" descr="Picture"/>
@@ -603,12 +714,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>20</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="571500" cy="381000"/>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>27</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="20" name="Image 20" descr="Picture"/>
@@ -628,12 +739,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>21</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="571500" cy="381000"/>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>28</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="21" name="Image 21" descr="Picture"/>
@@ -653,12 +764,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>22</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="571500" cy="381000"/>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>29</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="22" name="Image 22" descr="Picture"/>
@@ -678,12 +789,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>23</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="571500" cy="381000"/>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>30</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="23" name="Image 23" descr="Picture"/>
@@ -703,12 +814,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>24</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="571500" cy="381000"/>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>31</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="24" name="Image 24" descr="Picture"/>
@@ -728,12 +839,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>25</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="571500" cy="381000"/>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>32</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="25" name="Image 25" descr="Picture"/>
@@ -753,12 +864,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>26</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="571500" cy="381000"/>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>33</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="26" name="Image 26" descr="Picture"/>
@@ -778,12 +889,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>27</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="571500" cy="381000"/>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>34</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="27" name="Image 27" descr="Picture"/>
@@ -803,12 +914,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>28</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="571500" cy="381000"/>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>35</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="28" name="Image 28" descr="Picture"/>
@@ -828,12 +939,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>29</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="571500" cy="381000"/>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>36</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="29" name="Image 29" descr="Picture"/>
@@ -853,12 +964,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>30</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="571500" cy="381000"/>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>37</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="30" name="Image 30" descr="Picture"/>
@@ -878,12 +989,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>31</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="571500" cy="381000"/>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>38</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="31" name="Image 31" descr="Picture"/>
@@ -903,12 +1014,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>32</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="571500" cy="381000"/>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="32" name="Image 32" descr="Picture"/>
@@ -928,12 +1039,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>33</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="571500" cy="381000"/>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>40</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="333375"/>
     <pic>
       <nvPicPr>
         <cNvPr id="33" name="Image 33" descr="Picture"/>
@@ -1243,1171 +1354,1433 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="35" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="9" max="9"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>LP KONSTAL Sp. z o.o.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>OFERTA NR: Laser/0032/08/2025</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Data: 27.08.2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>Dla: Klient</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>Ważne do: 2025-09-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="3" customHeight="1">
+      <c r="A6" s="5" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Nazwa</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>Miniatura</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>Nazwa części</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t>Materiał</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Grubość</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Ilość</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Koszt jednostkowy (z narzutami)</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Gięcie</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Dodatkowe</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Koszt całkowity</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Miniatura</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>Grubość [mm]</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>Waga jednostkowa [kg]</t>
+        </is>
+      </c>
+      <c r="G8" s="6" t="inlineStr">
+        <is>
+          <t>Ilość [szt]</t>
+        </is>
+      </c>
+      <c r="H8" s="6" t="inlineStr">
+        <is>
+          <t>Koszt jednostkowy [PLN]</t>
+        </is>
+      </c>
+      <c r="I8" s="6" t="inlineStr">
+        <is>
+          <t>Koszt całkowity [PLN]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="40" customHeight="1">
+      <c r="A9" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B9" s="8" t="inlineStr"/>
+      <c r="C9" s="9" t="inlineStr">
         <is>
           <t>Rew001_SO-B32-001_SRODEK_I_2500</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="E9" s="10" t="n">
         <v>1.5</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>5.680</t>
+        </is>
+      </c>
+      <c r="G9" s="9" t="n">
         <v>48</v>
       </c>
-      <c r="F2" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1771.2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="H9" s="10" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="I9" s="10" t="inlineStr">
+        <is>
+          <t>1799.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="40" customHeight="1">
+      <c r="A10" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B10" s="12" t="inlineStr"/>
+      <c r="C10" s="13" t="inlineStr">
         <is>
           <t>Rew001_SO-036-002_KANAL_SCIANA_OKNO_ZASLEPKA</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="D10" s="13" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="E10" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F10" s="14" t="inlineStr">
+        <is>
+          <t>0.480</t>
+        </is>
+      </c>
+      <c r="G10" s="13" t="n">
         <v>48</v>
       </c>
-      <c r="F3" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>323.52</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="H10" s="14" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="I10" s="14" t="inlineStr">
+        <is>
+          <t>328.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="40" customHeight="1">
+      <c r="A11" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B11" s="8" t="inlineStr"/>
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>Rew001_SO-G68-001_FIBER_DNO_2520</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="E11" s="10" t="n">
         <v>1.5</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F11" s="10" t="inlineStr">
+        <is>
+          <t>25.790</t>
+        </is>
+      </c>
+      <c r="G11" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="F4" t="n">
-        <v>155.29</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1863.48</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="H11" s="10" t="inlineStr">
+        <is>
+          <t>157.73</t>
+        </is>
+      </c>
+      <c r="I11" s="10" t="inlineStr">
+        <is>
+          <t>1892.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="40" customHeight="1">
+      <c r="A12" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B12" s="12" t="inlineStr"/>
+      <c r="C12" s="13" t="inlineStr">
         <is>
           <t>Rew001_SO-H16-001_FIBER_BOK_Z_OKNAMI_2000_PALETA</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+      <c r="D12" s="13" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="E12" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F12" s="14" t="inlineStr">
+        <is>
+          <t>4.830</t>
+        </is>
+      </c>
+      <c r="G12" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="F5" t="n">
-        <v>53.47</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>641.64</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="H12" s="14" t="inlineStr">
+        <is>
+          <t>54.31</t>
+        </is>
+      </c>
+      <c r="I12" s="14" t="inlineStr">
+        <is>
+          <t>651.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="40" customHeight="1">
+      <c r="A13" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B13" s="8" t="inlineStr"/>
+      <c r="C13" s="9" t="inlineStr">
         <is>
           <t>Rew003_SO-031-001_BOK_OKNO_ZASLEPKA</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="E13" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>1.280</t>
+        </is>
+      </c>
+      <c r="G13" s="9" t="n">
         <v>48</v>
       </c>
-      <c r="F6" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>631.2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="H13" s="10" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="I13" s="10" t="inlineStr">
+        <is>
+          <t>641.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="40" customHeight="1">
+      <c r="A14" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B14" s="12" t="inlineStr"/>
+      <c r="C14" s="13" t="inlineStr">
         <is>
           <t>Rew001_SO-G95-001_FIBER_GRZEBIEN_PAL_2520</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+      <c r="D14" s="13" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="E14" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F14" s="14" t="inlineStr">
+        <is>
+          <t>12.220</t>
+        </is>
+      </c>
+      <c r="G14" s="13" t="n">
         <v>36</v>
       </c>
-      <c r="F7" t="n">
-        <v>86.92</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3129.12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="H14" s="14" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="I14" s="14" t="inlineStr">
+        <is>
+          <t>3178.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="40" customHeight="1">
+      <c r="A15" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B15" s="8" t="inlineStr"/>
+      <c r="C15" s="9" t="inlineStr">
         <is>
           <t>Rew001_SO-G81-001_FIBER_PAL_RAMA_POZYCJONER_Y_II</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="E15" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>0.370</t>
+        </is>
+      </c>
+      <c r="G15" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="F8" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>140.16</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="H15" s="10" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="I15" s="10" t="inlineStr">
+        <is>
+          <t>142.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="40" customHeight="1">
+      <c r="A16" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B16" s="12" t="inlineStr"/>
+      <c r="C16" s="13" t="inlineStr">
         <is>
           <t>Rew001_SO-G72-001_FIBER_PAL_RAMA_GRZEB_BOK</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
+      <c r="D16" s="13" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="E16" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F16" s="14" t="inlineStr">
+        <is>
+          <t>40.730</t>
+        </is>
+      </c>
+      <c r="G16" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="F9" t="n">
-        <v>260.71</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3128.52</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="H16" s="14" t="inlineStr">
+        <is>
+          <t>264.81</t>
+        </is>
+      </c>
+      <c r="I16" s="14" t="inlineStr">
+        <is>
+          <t>3177.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="40" customHeight="1">
+      <c r="A17" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B17" s="8" t="inlineStr"/>
+      <c r="C17" s="9" t="inlineStr">
         <is>
           <t>Rew001_SO-G77-001_FIBER_PAL_NOGA_SRODKOWA</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="E17" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>0.770</t>
+        </is>
+      </c>
+      <c r="G17" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="F10" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>109.32</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="H17" s="10" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="I17" s="10" t="inlineStr">
+        <is>
+          <t>111.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="40" customHeight="1">
+      <c r="A18" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B18" s="12" t="inlineStr"/>
+      <c r="C18" s="13" t="inlineStr">
         <is>
           <t>Rew001_SO-G75-002_FIBER_PAL_RAMA_POZ_Y_HAK</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
+      <c r="D18" s="13" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="E18" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F18" s="14" t="inlineStr">
+        <is>
+          <t>1.200</t>
+        </is>
+      </c>
+      <c r="G18" s="13" t="n">
         <v>24</v>
       </c>
-      <c r="F11" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>294.72</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="H18" s="14" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="I18" s="14" t="inlineStr">
+        <is>
+          <t>299.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="40" customHeight="1">
+      <c r="A19" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B19" s="8" t="inlineStr"/>
+      <c r="C19" s="9" t="inlineStr">
         <is>
           <t>Rew004_SO-539-002_KANAL_PALETA</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="E19" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F19" s="10" t="inlineStr">
+        <is>
+          <t>26.220</t>
+        </is>
+      </c>
+      <c r="G19" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="F12" t="n">
-        <v>184.67</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4432.08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="H19" s="10" t="inlineStr">
+        <is>
+          <t>187.57</t>
+        </is>
+      </c>
+      <c r="I19" s="10" t="inlineStr">
+        <is>
+          <t>4501.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="40" customHeight="1">
+      <c r="A20" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B20" s="12" t="inlineStr"/>
+      <c r="C20" s="13" t="inlineStr">
         <is>
           <t>Rew001_SO-G69-001_FIBER_WANNA_2520</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
+      <c r="D20" s="13" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="E20" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F20" s="14" t="inlineStr">
+        <is>
+          <t>51.500</t>
+        </is>
+      </c>
+      <c r="G20" s="13" t="n">
         <v>24</v>
       </c>
-      <c r="F13" t="n">
-        <v>308.11</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7394.64</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="H20" s="14" t="inlineStr">
+        <is>
+          <t>312.95</t>
+        </is>
+      </c>
+      <c r="I20" s="14" t="inlineStr">
+        <is>
+          <t>7510.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="40" customHeight="1">
+      <c r="A21" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B21" s="8" t="inlineStr"/>
+      <c r="C21" s="9" t="inlineStr">
         <is>
           <t>Rew001_SO-G76-001_FIBER_PAL_2520_ZAMK_CZOL</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
+      <c r="D21" s="9" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="E21" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F21" s="10" t="inlineStr">
+        <is>
+          <t>9.500</t>
+        </is>
+      </c>
+      <c r="G21" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="F14" t="n">
-        <v>63.7</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>127.4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="H21" s="10" t="inlineStr">
+        <is>
+          <t>64.70</t>
+        </is>
+      </c>
+      <c r="I21" s="10" t="inlineStr">
+        <is>
+          <t>129.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="40" customHeight="1">
+      <c r="A22" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B22" s="12" t="inlineStr"/>
+      <c r="C22" s="13" t="inlineStr">
         <is>
           <t>Rew002_SO-413-001_MOCOWANIE_SILOWNIKA</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
+      <c r="D22" s="13" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="E22" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F22" s="14" t="inlineStr">
+        <is>
+          <t>0.080</t>
+        </is>
+      </c>
+      <c r="G22" s="13" t="n">
         <v>48</v>
       </c>
-      <c r="F15" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>251.52</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="H22" s="14" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="I22" s="14" t="inlineStr">
+        <is>
+          <t>255.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="40" customHeight="1">
+      <c r="A23" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B23" s="8" t="inlineStr"/>
+      <c r="C23" s="9" t="inlineStr">
         <is>
           <t>Rew001_SO-H09-001_FIBER_PAL_OSL_GRZEB_BOK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
+      <c r="D23" s="9" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="E23" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F23" s="10" t="inlineStr">
+        <is>
+          <t>7.970</t>
+        </is>
+      </c>
+      <c r="G23" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="F16" t="n">
-        <v>54.54</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>654.48</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="H23" s="10" t="inlineStr">
+        <is>
+          <t>55.40</t>
+        </is>
+      </c>
+      <c r="I23" s="10" t="inlineStr">
+        <is>
+          <t>664.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="40" customHeight="1">
+      <c r="A24" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B24" s="12" t="inlineStr"/>
+      <c r="C24" s="13" t="inlineStr">
         <is>
           <t>Rew001_SO-H07-001_FIBER_PAL_DOSZCZ_GORNE</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
+      <c r="D24" s="13" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="E24" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F24" s="14" t="inlineStr">
+        <is>
+          <t>1.860</t>
+        </is>
+      </c>
+      <c r="G24" s="13" t="n">
         <v>24</v>
       </c>
-      <c r="F17" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>441.6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="H24" s="14" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="I24" s="14" t="inlineStr">
+        <is>
+          <t>448.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="40" customHeight="1">
+      <c r="A25" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B25" s="8" t="inlineStr"/>
+      <c r="C25" s="9" t="inlineStr">
         <is>
           <t>Rew001_SO-G93-001_FIBER_MOC_DASZKA_SRODEK_PAL</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
+      <c r="D25" s="9" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="E25" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F25" s="10" t="inlineStr">
+        <is>
+          <t>0.240</t>
+        </is>
+      </c>
+      <c r="G25" s="9" t="n">
         <v>144</v>
       </c>
-      <c r="F18" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>745.92</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="H25" s="10" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="I25" s="10" t="inlineStr">
+        <is>
+          <t>757.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="40" customHeight="1">
+      <c r="A26" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B26" s="12" t="inlineStr"/>
+      <c r="C26" s="13" t="inlineStr">
         <is>
           <t>Rew001_SO-H15-001_FIBER_PAL_2520_DNO_WANNY_5</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
+      <c r="D26" s="13" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="E26" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F26" s="14" t="inlineStr">
+        <is>
+          <t>8.490</t>
+        </is>
+      </c>
+      <c r="G26" s="13" t="n">
         <v>48</v>
       </c>
-      <c r="F19" t="n">
-        <v>47.45</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2277.6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="H26" s="14" t="inlineStr">
+        <is>
+          <t>48.20</t>
+        </is>
+      </c>
+      <c r="I26" s="14" t="inlineStr">
+        <is>
+          <t>2313.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="40" customHeight="1">
+      <c r="A27" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B27" s="8" t="inlineStr"/>
+      <c r="C27" s="9" t="inlineStr">
         <is>
           <t>Rew001_SO-H04-001_FIBER_PAL_MOC_DASZKA_BOK_GNIAZDO</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
+      <c r="D27" s="9" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="E27" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F27" s="10" t="inlineStr">
+        <is>
+          <t>0.030</t>
+        </is>
+      </c>
+      <c r="G27" s="9" t="n">
         <v>96</v>
       </c>
-      <c r="F20" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>323.52</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="H27" s="10" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="I27" s="10" t="inlineStr">
+        <is>
+          <t>328.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="40" customHeight="1">
+      <c r="A28" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B28" s="12" t="inlineStr"/>
+      <c r="C28" s="13" t="inlineStr">
         <is>
           <t>Rew001_SO-G88-001_FIBER_RUSZT_PAL_2520_ZAMAWIAC_POLOWE</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
+      <c r="D28" s="13" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="E28" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F28" s="14" t="inlineStr">
+        <is>
+          <t>7.420</t>
+        </is>
+      </c>
+      <c r="G28" s="13" t="n">
         <v>168</v>
       </c>
-      <c r="F21" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8316</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="H28" s="14" t="inlineStr">
+        <is>
+          <t>50.28</t>
+        </is>
+      </c>
+      <c r="I28" s="14" t="inlineStr">
+        <is>
+          <t>8447.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="40" customHeight="1">
+      <c r="A29" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B29" s="8" t="inlineStr"/>
+      <c r="C29" s="9" t="inlineStr">
         <is>
           <t>Rew001_SO-274-002_PROWADNICA_WIDEL_DLUGA</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
+      <c r="D29" s="9" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="E29" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F29" s="10" t="inlineStr">
+        <is>
+          <t>7.710</t>
+        </is>
+      </c>
+      <c r="G29" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="F22" t="n">
-        <v>49.95</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1198.8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="H29" s="10" t="inlineStr">
+        <is>
+          <t>50.74</t>
+        </is>
+      </c>
+      <c r="I29" s="10" t="inlineStr">
+        <is>
+          <t>1217.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="40" customHeight="1">
+      <c r="A30" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B30" s="12" t="inlineStr"/>
+      <c r="C30" s="13" t="inlineStr">
         <is>
           <t>Rew001_SO-H02-001_FIBER_PAL_MOC_DASZKA_BOK_HAK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
+      <c r="D30" s="13" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="E30" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F30" s="14" t="inlineStr">
+        <is>
+          <t>0.130</t>
+        </is>
+      </c>
+      <c r="G30" s="13" t="n">
         <v>96</v>
       </c>
-      <c r="F23" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>416.64</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="H30" s="14" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="I30" s="14" t="inlineStr">
+        <is>
+          <t>423.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="40" customHeight="1">
+      <c r="A31" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B31" s="8" t="inlineStr"/>
+      <c r="C31" s="9" t="inlineStr">
         <is>
           <t>Rew001_SO-F18-001_WZM_NOGI</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="E31" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F31" s="10" t="inlineStr">
+        <is>
+          <t>0.230</t>
+        </is>
+      </c>
+      <c r="G31" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="F24" t="n">
+      <c r="H31" s="10" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="I31" s="10" t="inlineStr">
+        <is>
+          <t>121.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="40" customHeight="1">
+      <c r="A32" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B32" s="12" t="inlineStr"/>
+      <c r="C32" s="13" t="inlineStr">
+        <is>
+          <t>Rew001_SO-G82-001_FIBER_PAL_ZASLEPKA_WZM_BOKU</t>
+        </is>
+      </c>
+      <c r="D32" s="13" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="E32" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="F32" s="14" t="inlineStr">
+        <is>
+          <t>0.400</t>
+        </is>
+      </c>
+      <c r="G32" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="H32" s="14" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="I32" s="14" t="inlineStr">
+        <is>
+          <t>152.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="40" customHeight="1">
+      <c r="A33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" s="8" t="inlineStr"/>
+      <c r="C33" s="9" t="inlineStr">
+        <is>
+          <t>Rew001_SO-G97-001_FIBER_PAL_BAZA_MOC_GRZEB_BOK</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="E33" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Rew001_SO-G82-001_FIBER_PAL_ZASLEPKA_WZM_BOKU</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
+      <c r="F33" s="10" t="inlineStr">
+        <is>
+          <t>0.180</t>
+        </is>
+      </c>
+      <c r="G33" s="9" t="n">
+        <v>36</v>
+      </c>
+      <c r="H33" s="10" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="I33" s="10" t="inlineStr">
+        <is>
+          <t>134.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="40" customHeight="1">
+      <c r="A34" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B34" s="12" t="inlineStr"/>
+      <c r="C34" s="13" t="inlineStr">
+        <is>
+          <t>Rew001_SO-H04-001_FIBER_PAL_2520_DASZEK_BOK_619</t>
+        </is>
+      </c>
+      <c r="D34" s="13" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="E34" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="F34" s="14" t="inlineStr">
+        <is>
+          <t>9.120</t>
+        </is>
+      </c>
+      <c r="G34" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="H34" s="14" t="inlineStr">
+        <is>
+          <t>43.03</t>
+        </is>
+      </c>
+      <c r="I34" s="14" t="inlineStr">
+        <is>
+          <t>1032.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="40" customHeight="1">
+      <c r="A35" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B35" s="8" t="inlineStr"/>
+      <c r="C35" s="9" t="inlineStr">
+        <is>
+          <t>Rew001_SO-H14-001_FIBER_DASZEK_TRAPEZ_PAL</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="E35" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F35" s="10" t="inlineStr">
+        <is>
+          <t>9.570</t>
+        </is>
+      </c>
+      <c r="G35" s="9" t="n">
+        <v>48</v>
+      </c>
+      <c r="H35" s="10" t="inlineStr">
+        <is>
+          <t>44.59</t>
+        </is>
+      </c>
+      <c r="I35" s="10" t="inlineStr">
+        <is>
+          <t>2140.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="40" customHeight="1">
+      <c r="A36" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B36" s="12" t="inlineStr"/>
+      <c r="C36" s="13" t="inlineStr">
+        <is>
+          <t>Rew001_SO-H08-001_FIBER_PAL_WANNA_WZMOC</t>
+        </is>
+      </c>
+      <c r="D36" s="13" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="E36" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="F36" s="14" t="inlineStr">
+        <is>
+          <t>1.700</t>
+        </is>
+      </c>
+      <c r="G36" s="13" t="n">
+        <v>72</v>
+      </c>
+      <c r="H36" s="14" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="I36" s="14" t="inlineStr">
+        <is>
+          <t>748.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="40" customHeight="1">
+      <c r="A37" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="E25" t="n">
+      <c r="B37" s="8" t="inlineStr"/>
+      <c r="C37" s="9" t="inlineStr">
+        <is>
+          <t>Rew001_SO-G98-001_FIBER_PAL_BAZA_POZ_Y</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="E37" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F37" s="10" t="inlineStr">
+        <is>
+          <t>0.150</t>
+        </is>
+      </c>
+      <c r="G37" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="H37" s="10" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="I37" s="10" t="inlineStr">
+        <is>
+          <t>42.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="40" customHeight="1">
+      <c r="A38" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B38" s="12" t="inlineStr"/>
+      <c r="C38" s="13" t="inlineStr">
+        <is>
+          <t>Rew001_SO-G99-001_FIBER_PAL_2520_DASZEK_619</t>
+        </is>
+      </c>
+      <c r="D38" s="13" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="E38" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="F38" s="14" t="inlineStr">
+        <is>
+          <t>15.680</t>
+        </is>
+      </c>
+      <c r="G38" s="13" t="n">
+        <v>36</v>
+      </c>
+      <c r="H38" s="14" t="inlineStr">
+        <is>
+          <t>71.70</t>
+        </is>
+      </c>
+      <c r="I38" s="14" t="inlineStr">
+        <is>
+          <t>2581.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="40" customHeight="1">
+      <c r="A39" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B39" s="8" t="inlineStr"/>
+      <c r="C39" s="9" t="inlineStr">
+        <is>
+          <t>Rew001_SO-H03-001_FIBER_PAL_2520_DASZEK_BOK_L_P</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="E39" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F39" s="10" t="inlineStr">
+        <is>
+          <t>9.130</t>
+        </is>
+      </c>
+      <c r="G39" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="F25" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>150.48</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Rew001_SO-G97-001_FIBER_PAL_BAZA_MOC_GRZEB_BOK</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
+      <c r="H39" s="10" t="inlineStr">
+        <is>
+          <t>43.08</t>
+        </is>
+      </c>
+      <c r="I39" s="10" t="inlineStr">
+        <is>
+          <t>1033.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="40" customHeight="1">
+      <c r="A40" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="E26" t="n">
+      <c r="B40" s="12" t="inlineStr"/>
+      <c r="C40" s="13" t="inlineStr">
+        <is>
+          <t>Rew001_SO-H05-001_PAL_2520FIB_DASZEK_650</t>
+        </is>
+      </c>
+      <c r="D40" s="13" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="E40" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="F40" s="14" t="inlineStr">
+        <is>
+          <t>15.510</t>
+        </is>
+      </c>
+      <c r="G40" s="13" t="n">
         <v>36</v>
       </c>
-      <c r="F26" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>132.48</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>2</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Rew001_SO-H04-001_FIBER_PAL_2520_DASZEK_BOK_619</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
+      <c r="H40" s="14" t="inlineStr">
+        <is>
+          <t>70.96</t>
+        </is>
+      </c>
+      <c r="I40" s="14" t="inlineStr">
+        <is>
+          <t>2554.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="40" customHeight="1">
+      <c r="A41" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="B41" s="8" t="inlineStr"/>
+      <c r="C41" s="9" t="inlineStr">
+        <is>
+          <t>Rew001_SO-G94-001_FIBER_PAL_BAZA_MOC_GRZEB</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>S235</t>
+        </is>
+      </c>
+      <c r="E41" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="E27" t="n">
-        <v>24</v>
-      </c>
-      <c r="F27" t="n">
-        <v>42.36</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1016.64</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>3</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Rew001_SO-H14-001_FIBER_DASZEK_TRAPEZ_PAL</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>8</v>
-      </c>
-      <c r="E28" t="n">
-        <v>48</v>
-      </c>
-      <c r="F28" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2107.2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>4</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Rew001_SO-H08-001_FIBER_PAL_WANNA_WZMOC</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>8</v>
-      </c>
-      <c r="E29" t="n">
-        <v>72</v>
-      </c>
-      <c r="F29" t="n">
-        <v>10.23</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>736.5600000000001</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>5</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Rew001_SO-G98-001_FIBER_PAL_BAZA_POZ_Y</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>8</v>
-      </c>
-      <c r="E30" t="n">
-        <v>12</v>
-      </c>
-      <c r="F30" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>41.52</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>6</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Rew001_SO-G99-001_FIBER_PAL_2520_DASZEK_619</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>8</v>
-      </c>
-      <c r="E31" t="n">
-        <v>36</v>
-      </c>
-      <c r="F31" t="n">
-        <v>70.59</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2541.24</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>7</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Rew001_SO-H03-001_FIBER_PAL_2520_DASZEK_BOK_L_P</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>8</v>
-      </c>
-      <c r="E32" t="n">
-        <v>24</v>
-      </c>
-      <c r="F32" t="n">
-        <v>42.41</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1017.84</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>8</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Rew001_SO-H05-001_PAL_2520FIB_DASZEK_650</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>8</v>
-      </c>
-      <c r="E33" t="n">
-        <v>36</v>
-      </c>
-      <c r="F33" t="n">
-        <v>69.86</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2514.96</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>9</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Rew001_SO-G94-001_FIBER_PAL_BAZA_MOC_GRZEB</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>S235</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>8</v>
-      </c>
-      <c r="E34" t="n">
+      <c r="F41" s="10" t="inlineStr">
+        <is>
+          <t>0.310</t>
+        </is>
+      </c>
+      <c r="G41" s="9" t="n">
         <v>54</v>
       </c>
-      <c r="F34" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>234.36</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Suma</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>49226.35999999999</v>
+      <c r="H41" s="10" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="I41" s="10" t="inlineStr">
+        <is>
+          <t>238.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="15" t="inlineStr">
+        <is>
+          <t>RAZEM</t>
+        </is>
+      </c>
+      <c r="G42" s="16" t="inlineStr"/>
+      <c r="H42" s="16" t="inlineStr"/>
+      <c r="I42" s="17" t="inlineStr">
+        <is>
+          <t>50000.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="18" t="inlineStr">
+        <is>
+          <t>WARUNKI REALIZACJI</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="19" t="inlineStr">
+        <is>
+          <t>1. Realizacja zlecenia następuje po akceptacji oferty i przesłaniu dokumentacji technicznej.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="19" t="inlineStr">
+        <is>
+          <t>2. Termin realizacji: do uzgodnienia, standardowo 5-7 dni roboczych.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="19" t="inlineStr">
+        <is>
+          <t>3. Ceny nie zawierają kosztów transportu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="19" t="inlineStr">
+        <is>
+          <t>4. Wyłączenia odpowiedzialności:</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   • Za błędy w dostarczonej dokumentacji technicznej</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   • Za wady materiału powierzonego</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   • Za szkody wynikające z siły wyższej</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="19" t="inlineStr">
+        <is>
+          <t>5. Płatność: przelew 14 dni od daty wystawienia faktury VAT.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="20" t="inlineStr">
+        <is>
+          <t>Laser Team | Tel: +48 537 883 393 | Email: laser@konstal.com</t>
+        </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A52:I52"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A53:I53"/>
+    <mergeCell ref="A50:I50"/>
+    <mergeCell ref="A48:I48"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" fitToHeight="0" fitToWidth="1"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>